--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.668749</v>
+        <v>1.005539333333333</v>
       </c>
       <c r="H2">
-        <v>8.006247</v>
+        <v>3.016618</v>
       </c>
       <c r="I2">
-        <v>0.08514925498774346</v>
+        <v>0.06022996424239081</v>
       </c>
       <c r="J2">
-        <v>0.08514925498774346</v>
+        <v>0.06022996424239079</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2781686666666667</v>
+        <v>0.1178306666666667</v>
       </c>
       <c r="N2">
-        <v>0.834506</v>
+        <v>0.353492</v>
       </c>
       <c r="O2">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903252</v>
       </c>
       <c r="P2">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903251</v>
       </c>
       <c r="Q2">
-        <v>0.7423623509980001</v>
+        <v>0.1184833700062222</v>
       </c>
       <c r="R2">
-        <v>6.681261158982</v>
+        <v>1.066350330056</v>
       </c>
       <c r="S2">
-        <v>0.0001045645394067379</v>
+        <v>3.139007386898821E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001045645394067379</v>
+        <v>3.139007386898819E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.668749</v>
+        <v>1.005539333333333</v>
       </c>
       <c r="H3">
-        <v>8.006247</v>
+        <v>3.016618</v>
       </c>
       <c r="I3">
-        <v>0.08514925498774346</v>
+        <v>0.06022996424239081</v>
       </c>
       <c r="J3">
-        <v>0.08514925498774346</v>
+        <v>0.06022996424239079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>677.3342279999999</v>
       </c>
       <c r="O3">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="P3">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="Q3">
-        <v>602.5450145469239</v>
+        <v>227.0287360223226</v>
       </c>
       <c r="R3">
-        <v>5422.905130922316</v>
+        <v>2043.258624200904</v>
       </c>
       <c r="S3">
-        <v>0.0848707397852602</v>
+        <v>0.06014724930384308</v>
       </c>
       <c r="T3">
-        <v>0.0848707397852602</v>
+        <v>0.06014724930384306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.668749</v>
+        <v>1.005539333333333</v>
       </c>
       <c r="H4">
-        <v>8.006247</v>
+        <v>3.016618</v>
       </c>
       <c r="I4">
-        <v>0.08514925498774346</v>
+        <v>0.06022996424239081</v>
       </c>
       <c r="J4">
-        <v>0.08514925498774346</v>
+        <v>0.06022996424239079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4627536666666667</v>
+        <v>0.192661</v>
       </c>
       <c r="N4">
-        <v>1.388261</v>
+        <v>0.5779829999999999</v>
       </c>
       <c r="O4">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820529</v>
       </c>
       <c r="P4">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820528</v>
       </c>
       <c r="Q4">
-        <v>1.234973385163</v>
+        <v>0.1937282134993333</v>
       </c>
       <c r="R4">
-        <v>11.114760466467</v>
+        <v>1.743553921494</v>
       </c>
       <c r="S4">
-        <v>0.0001739506630765235</v>
+        <v>5.132486467874635E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001739506630765235</v>
+        <v>5.132486467874634E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>1.403995666666667</v>
       </c>
       <c r="H5">
-        <v>4.211987</v>
+        <v>4.211987000000001</v>
       </c>
       <c r="I5">
-        <v>0.04479596433485759</v>
+        <v>0.08409676876535742</v>
       </c>
       <c r="J5">
-        <v>0.04479596433485759</v>
+        <v>0.0840967687653574</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2781686666666667</v>
+        <v>0.1178306666666667</v>
       </c>
       <c r="N5">
-        <v>0.834506</v>
+        <v>0.353492</v>
       </c>
       <c r="O5">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903252</v>
       </c>
       <c r="P5">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903251</v>
       </c>
       <c r="Q5">
-        <v>0.3905476026024445</v>
+        <v>0.1654337454004445</v>
       </c>
       <c r="R5">
-        <v>3.514928423422</v>
+        <v>1.488903708604</v>
       </c>
       <c r="S5">
-        <v>5.501010406525898E-05</v>
+        <v>4.382874565663205E-05</v>
       </c>
       <c r="T5">
-        <v>5.501010406525898E-05</v>
+        <v>4.382874565663204E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1.403995666666667</v>
       </c>
       <c r="H6">
-        <v>4.211987</v>
+        <v>4.211987000000001</v>
       </c>
       <c r="I6">
-        <v>0.04479596433485759</v>
+        <v>0.08409676876535742</v>
       </c>
       <c r="J6">
-        <v>0.04479596433485759</v>
+        <v>0.0840967687653574</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>677.3342279999999</v>
       </c>
       <c r="O6">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="P6">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="Q6">
         <v>316.9914403323373</v>
@@ -818,10 +818,10 @@
         <v>2852.922962991036</v>
       </c>
       <c r="S6">
-        <v>0.04464944094978568</v>
+        <v>0.08398127709691652</v>
       </c>
       <c r="T6">
-        <v>0.04464944094978568</v>
+        <v>0.08398127709691651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1.403995666666667</v>
       </c>
       <c r="H7">
-        <v>4.211987</v>
+        <v>4.211987000000001</v>
       </c>
       <c r="I7">
-        <v>0.04479596433485759</v>
+        <v>0.08409676876535742</v>
       </c>
       <c r="J7">
-        <v>0.04479596433485759</v>
+        <v>0.0840967687653574</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4627536666666667</v>
+        <v>0.192661</v>
       </c>
       <c r="N7">
-        <v>1.388261</v>
+        <v>0.5779829999999999</v>
       </c>
       <c r="O7">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820529</v>
       </c>
       <c r="P7">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820528</v>
       </c>
       <c r="Q7">
-        <v>0.6497041427341111</v>
+        <v>0.2704952091356667</v>
       </c>
       <c r="R7">
-        <v>5.847337284607</v>
+        <v>2.434456882221</v>
       </c>
       <c r="S7">
-        <v>9.151328100665603E-05</v>
+        <v>7.166292278426996E-05</v>
       </c>
       <c r="T7">
-        <v>9.151328100665602E-05</v>
+        <v>7.166292278426994E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.26926766666666</v>
+        <v>14.28546633333333</v>
       </c>
       <c r="H8">
-        <v>81.80780299999999</v>
+        <v>42.856399</v>
       </c>
       <c r="I8">
-        <v>0.8700547806773989</v>
+        <v>0.8556732669922519</v>
       </c>
       <c r="J8">
-        <v>0.8700547806773989</v>
+        <v>0.8556732669922518</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2781686666666667</v>
+        <v>0.1178306666666667</v>
       </c>
       <c r="N8">
-        <v>0.834506</v>
+        <v>0.353492</v>
       </c>
       <c r="O8">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903252</v>
       </c>
       <c r="P8">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903251</v>
       </c>
       <c r="Q8">
-        <v>7.585455827813111</v>
+        <v>1.683266021700889</v>
       </c>
       <c r="R8">
-        <v>68.26910245031799</v>
+        <v>15.149394195308</v>
       </c>
       <c r="S8">
-        <v>0.001068440086918646</v>
+        <v>0.000445951569064705</v>
       </c>
       <c r="T8">
-        <v>0.001068440086918646</v>
+        <v>0.0004459515690647048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.26926766666666</v>
+        <v>14.28546633333333</v>
       </c>
       <c r="H9">
-        <v>81.80780299999999</v>
+        <v>42.856399</v>
       </c>
       <c r="I9">
-        <v>0.8700547806773989</v>
+        <v>0.8556732669922519</v>
       </c>
       <c r="J9">
-        <v>0.8700547806773989</v>
+        <v>0.8556732669922518</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>677.3342279999999</v>
       </c>
       <c r="O9">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="P9">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="Q9">
-        <v>6156.802787709008</v>
+        <v>3225.345103502774</v>
       </c>
       <c r="R9">
-        <v>55411.22508938107</v>
+        <v>29028.10593152497</v>
       </c>
       <c r="S9">
-        <v>0.8672089133418976</v>
+        <v>0.8544981548601682</v>
       </c>
       <c r="T9">
-        <v>0.8672089133418976</v>
+        <v>0.8544981548601681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.26926766666666</v>
+        <v>14.28546633333333</v>
       </c>
       <c r="H10">
-        <v>81.80780299999999</v>
+        <v>42.856399</v>
       </c>
       <c r="I10">
-        <v>0.8700547806773989</v>
+        <v>0.8556732669922519</v>
       </c>
       <c r="J10">
-        <v>0.8700547806773989</v>
+        <v>0.8556732669922518</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4627536666666667</v>
+        <v>0.192661</v>
       </c>
       <c r="N10">
-        <v>1.388261</v>
+        <v>0.5779829999999999</v>
       </c>
       <c r="O10">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820529</v>
       </c>
       <c r="P10">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820528</v>
       </c>
       <c r="Q10">
-        <v>12.61895360006478</v>
+        <v>2.752252229246333</v>
       </c>
       <c r="R10">
-        <v>113.570582400583</v>
+        <v>24.77027006321699</v>
       </c>
       <c r="S10">
-        <v>0.001777427248582713</v>
+        <v>0.0007291605630190367</v>
       </c>
       <c r="T10">
-        <v>0.001777427248582713</v>
+        <v>0.0007291605630190365</v>
       </c>
     </row>
   </sheetData>
